--- a/sample.data.xlsx
+++ b/sample.data.xlsx
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aportugu/Desktop/Rworkshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A1F492-99B2-5141-824C-C035CA87FE47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9A8408-E79C-1942-B541-C650B8C59683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sample.data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1381,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DM130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="DI11" sqref="DI11"/>
+    <sheetView tabSelected="1" topLeftCell="BY102" workbookViewId="0">
+      <selection activeCell="CO133" sqref="CO133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1997,7 +2010,7 @@
         <v>0.69250001000000005</v>
       </c>
       <c r="CM2">
-        <v>0.18174999999999999</v>
+        <v>181.75</v>
       </c>
       <c r="CN2">
         <v>0</v>
@@ -2308,7 +2321,7 @@
         <v>0.63999998599999997</v>
       </c>
       <c r="CM3">
-        <v>0.27966666699999998</v>
+        <v>279.66666699999996</v>
       </c>
       <c r="CN3">
         <v>1</v>
@@ -2595,7 +2608,7 @@
         <v>1.3224999900000001</v>
       </c>
       <c r="CM4">
-        <v>0.26100000000000001</v>
+        <v>261</v>
       </c>
       <c r="CN4">
         <v>1</v>
@@ -2882,7 +2895,7 @@
         <v>1.045000017</v>
       </c>
       <c r="CM5">
-        <v>0.12</v>
+        <v>120</v>
       </c>
       <c r="CN5">
         <v>0</v>
@@ -3163,7 +3176,7 @@
         <v>0.87999999500000003</v>
       </c>
       <c r="CM6">
-        <v>0.17349999999999999</v>
+        <v>173.5</v>
       </c>
       <c r="CN6">
         <v>0</v>
@@ -3459,7 +3472,7 @@
         <v>0.55500000699999996</v>
       </c>
       <c r="CM7">
-        <v>0.224</v>
+        <v>224</v>
       </c>
       <c r="CN7">
         <v>1</v>
@@ -3770,7 +3783,7 @@
         <v>0.65333334600000004</v>
       </c>
       <c r="CM8">
-        <v>0.48733333299999998</v>
+        <v>487.33333299999998</v>
       </c>
       <c r="CN8">
         <v>1</v>
@@ -4057,7 +4070,7 @@
         <v>0.73000000399999998</v>
       </c>
       <c r="CM9">
-        <v>0.133333333</v>
+        <v>133.33333300000001</v>
       </c>
       <c r="CN9">
         <v>0</v>
@@ -4344,7 +4357,7 @@
         <v>1.0049999650000001</v>
       </c>
       <c r="CM10">
-        <v>0.23899999999999999</v>
+        <v>239</v>
       </c>
       <c r="CN10">
         <v>1</v>
@@ -4664,7 +4677,7 @@
         <v>0.62333333499999999</v>
       </c>
       <c r="CM11">
-        <v>0.139333333</v>
+        <v>139.33333300000001</v>
       </c>
       <c r="CN11">
         <v>0</v>
@@ -4978,7 +4991,7 @@
         <v>0.92599999899999996</v>
       </c>
       <c r="CM12">
-        <v>0.23874999999999999</v>
+        <v>238.75</v>
       </c>
       <c r="CN12">
         <v>1</v>
@@ -5316,7 +5329,7 @@
         <v>1.118000031</v>
       </c>
       <c r="CM13">
-        <v>0.40033333300000001</v>
+        <v>400.33333300000004</v>
       </c>
       <c r="CN13">
         <v>1</v>
@@ -5651,7 +5664,7 @@
         <v>0.51599999100000005</v>
       </c>
       <c r="CM14">
-        <v>1.1545000000000001</v>
+        <v>1154.5</v>
       </c>
       <c r="CN14">
         <v>1</v>
@@ -5956,7 +5969,7 @@
         <v>1.0950000289999999</v>
       </c>
       <c r="CM15">
-        <v>0.1535</v>
+        <v>153.5</v>
       </c>
       <c r="CN15">
         <v>0</v>
@@ -6270,7 +6283,7 @@
         <v>0.98666667900000005</v>
       </c>
       <c r="CM16">
-        <v>0.42833333299999998</v>
+        <v>428.33333299999998</v>
       </c>
       <c r="CN16">
         <v>1</v>
@@ -6593,7 +6606,7 @@
         <v>0.82666665299999997</v>
       </c>
       <c r="CM17">
-        <v>0.20699999999999999</v>
+        <v>207</v>
       </c>
       <c r="CN17">
         <v>0</v>
@@ -6919,7 +6932,7 @@
         <v>1.0180000069999999</v>
       </c>
       <c r="CM18">
-        <v>0.18759999999999999</v>
+        <v>187.6</v>
       </c>
       <c r="CN18">
         <v>0</v>
@@ -7242,7 +7255,7 @@
         <v>0.53999999700000001</v>
       </c>
       <c r="CM19">
-        <v>0.45100000000000001</v>
+        <v>451</v>
       </c>
       <c r="CN19">
         <v>1</v>
@@ -7562,7 +7575,7 @@
         <v>0.875</v>
       </c>
       <c r="CM20">
-        <v>0.16550000000000001</v>
+        <v>165.5</v>
       </c>
       <c r="CN20">
         <v>0</v>
@@ -7888,7 +7901,7 @@
         <v>0.83999999400000003</v>
       </c>
       <c r="CM21">
-        <v>0.22966666699999999</v>
+        <v>229.66666699999999</v>
       </c>
       <c r="CN21">
         <v>1</v>
@@ -8220,7 +8233,7 @@
         <v>1.027999997</v>
       </c>
       <c r="CM22">
-        <v>0.62360000000000004</v>
+        <v>623.6</v>
       </c>
       <c r="CN22">
         <v>1</v>
@@ -8546,7 +8559,7 @@
         <v>0.78499999600000003</v>
       </c>
       <c r="CM23">
-        <v>0.30775000000000002</v>
+        <v>307.75</v>
       </c>
       <c r="CN23">
         <v>1</v>
@@ -8854,7 +8867,7 @@
         <v>0.70000001199999995</v>
       </c>
       <c r="CM24">
-        <v>0.33574999999999999</v>
+        <v>335.75</v>
       </c>
       <c r="CN24">
         <v>1</v>
@@ -9186,7 +9199,7 @@
         <v>1.174000001</v>
       </c>
       <c r="CM25">
-        <v>0.40925</v>
+        <v>409.25</v>
       </c>
       <c r="CN25">
         <v>1</v>
@@ -9512,7 +9525,7 @@
         <v>0.71999998899999995</v>
       </c>
       <c r="CM26">
-        <v>0.147666667</v>
+        <v>147.66666699999999</v>
       </c>
       <c r="CN26">
         <v>0</v>
@@ -9799,7 +9812,7 @@
         <v>0.84666665399999996</v>
       </c>
       <c r="CM27">
-        <v>0.208666667</v>
+        <v>208.66666699999999</v>
       </c>
       <c r="CN27">
         <v>0</v>
@@ -10101,7 +10114,7 @@
         <v>1.034999996</v>
       </c>
       <c r="CM28">
-        <v>0.151</v>
+        <v>151</v>
       </c>
       <c r="CN28">
         <v>0</v>
@@ -10412,7 +10425,7 @@
         <v>0.59333332400000005</v>
       </c>
       <c r="CM29">
-        <v>0.23699999999999999</v>
+        <v>237</v>
       </c>
       <c r="CN29">
         <v>1</v>
@@ -10720,7 +10733,7 @@
         <v>0.81666666300000001</v>
       </c>
       <c r="CM30">
-        <v>0.179666667</v>
+        <v>179.66666699999999</v>
       </c>
       <c r="CN30">
         <v>0</v>
@@ -11031,7 +11044,7 @@
         <v>1.325999999</v>
       </c>
       <c r="CM31">
-        <v>0.75800000000000001</v>
+        <v>758</v>
       </c>
       <c r="CN31">
         <v>1</v>
@@ -11333,7 +11346,7 @@
         <v>0.689999998</v>
       </c>
       <c r="CM32">
-        <v>0.1045</v>
+        <v>104.5</v>
       </c>
       <c r="CN32">
         <v>0</v>
@@ -11620,7 +11633,7 @@
         <v>0.90000000599999996</v>
       </c>
       <c r="CM33">
-        <v>0.158</v>
+        <v>158</v>
       </c>
       <c r="CN33">
         <v>0</v>
@@ -11928,7 +11941,7 @@
         <v>1.1033333540000001</v>
       </c>
       <c r="CM34">
-        <v>0.17799999999999999</v>
+        <v>178</v>
       </c>
       <c r="CN34">
         <v>0</v>
@@ -12260,7 +12273,7 @@
         <v>0.82499998799999996</v>
       </c>
       <c r="CM35">
-        <v>0.16400000000000001</v>
+        <v>164</v>
       </c>
       <c r="CN35">
         <v>0</v>
@@ -12553,7 +12566,7 @@
         <v>0.816666683</v>
       </c>
       <c r="CM36">
-        <v>0.16550000000000001</v>
+        <v>165.5</v>
       </c>
       <c r="CN36">
         <v>0</v>
@@ -12843,7 +12856,7 @@
         <v>0.80333332199999996</v>
       </c>
       <c r="CM37">
-        <v>0.19133333299999999</v>
+        <v>191.33333299999998</v>
       </c>
       <c r="CN37">
         <v>0</v>
@@ -13166,7 +13179,7 @@
         <v>0.758333335</v>
       </c>
       <c r="CM38">
-        <v>2.459666667</v>
+        <v>2459.666667</v>
       </c>
       <c r="CN38">
         <v>1</v>
@@ -13489,7 +13502,7 @@
         <v>0.73333332900000003</v>
       </c>
       <c r="CM39">
-        <v>0.20633333300000001</v>
+        <v>206.33333300000001</v>
       </c>
       <c r="CN39">
         <v>0</v>
@@ -13779,7 +13792,7 @@
         <v>0.85999999000000005</v>
       </c>
       <c r="CM40">
-        <v>0.39200000000000002</v>
+        <v>392</v>
       </c>
       <c r="CN40">
         <v>1</v>
@@ -14087,7 +14100,7 @@
         <v>1.223333319</v>
       </c>
       <c r="CM41">
-        <v>0.12666666700000001</v>
+        <v>126.666667</v>
       </c>
       <c r="CN41">
         <v>0</v>
@@ -14389,7 +14402,7 @@
         <v>0.60666666400000002</v>
       </c>
       <c r="CM42">
-        <v>0.17799999999999999</v>
+        <v>178</v>
       </c>
       <c r="CN42">
         <v>0</v>
@@ -14691,7 +14704,7 @@
         <v>0.77000001100000004</v>
       </c>
       <c r="CM43">
-        <v>0.17899999999999999</v>
+        <v>179</v>
       </c>
       <c r="CN43">
         <v>0</v>
@@ -14993,7 +15006,7 @@
         <v>0.79999999200000005</v>
       </c>
       <c r="CM44">
-        <v>0.12833333299999999</v>
+        <v>128.33333299999998</v>
       </c>
       <c r="CN44">
         <v>0</v>
@@ -15322,7 +15335,7 @@
         <v>0.52000001100000004</v>
       </c>
       <c r="CM45">
-        <v>0.214</v>
+        <v>214</v>
       </c>
       <c r="CN45">
         <v>1</v>
@@ -15648,7 +15661,7 @@
         <v>0.80000001200000004</v>
       </c>
       <c r="CM46">
-        <v>0.1045</v>
+        <v>104.5</v>
       </c>
       <c r="CN46">
         <v>0</v>
@@ -15968,7 +15981,7 @@
         <v>1.792500049</v>
       </c>
       <c r="CM47">
-        <v>0.20200000000000001</v>
+        <v>202</v>
       </c>
       <c r="CN47">
         <v>0</v>
@@ -16294,7 +16307,7 @@
         <v>0.97199999100000001</v>
       </c>
       <c r="CM48">
-        <v>0.16650000000000001</v>
+        <v>166.5</v>
       </c>
       <c r="CN48">
         <v>0</v>
@@ -16617,7 +16630,7 @@
         <v>0.939999998</v>
       </c>
       <c r="CM49">
-        <v>0.13550000000000001</v>
+        <v>135.5</v>
       </c>
       <c r="CN49">
         <v>0</v>
@@ -16958,7 +16971,7 @@
         <v>0.64333334600000003</v>
       </c>
       <c r="CM50">
-        <v>0.26319999999999999</v>
+        <v>263.2</v>
       </c>
       <c r="CN50">
         <v>1</v>
@@ -17275,7 +17288,7 @@
         <v>0.65999999600000003</v>
       </c>
       <c r="CM51">
-        <v>0.13650000000000001</v>
+        <v>136.5</v>
       </c>
       <c r="CN51">
         <v>0</v>
@@ -17586,7 +17599,7 @@
         <v>0.68799998799999995</v>
       </c>
       <c r="CM52">
-        <v>0.27050000000000002</v>
+        <v>270.5</v>
       </c>
       <c r="CN52">
         <v>1</v>
@@ -17900,7 +17913,7 @@
         <v>0.98400000300000001</v>
       </c>
       <c r="CM53">
-        <v>0.249</v>
+        <v>249</v>
       </c>
       <c r="CN53">
         <v>1</v>
@@ -18534,7 +18547,7 @@
         <v>1.5333333410000001</v>
       </c>
       <c r="CM55">
-        <v>0.14199999999999999</v>
+        <v>142</v>
       </c>
       <c r="CN55">
         <v>0</v>
@@ -18830,7 +18843,7 @@
         <v>0.54500000199999998</v>
       </c>
       <c r="CM56">
-        <v>0.16600000000000001</v>
+        <v>166</v>
       </c>
       <c r="CN56">
         <v>0</v>
@@ -19129,7 +19142,7 @@
         <v>0.92599999899999996</v>
       </c>
       <c r="CM57">
-        <v>0.80840000000000001</v>
+        <v>808.4</v>
       </c>
       <c r="CN57">
         <v>1</v>
@@ -19790,7 +19803,7 @@
         <v>0.49</v>
       </c>
       <c r="CM59">
-        <v>0.11233333299999999</v>
+        <v>112.333333</v>
       </c>
       <c r="CN59">
         <v>0</v>
@@ -20104,7 +20117,7 @@
         <v>0.89999998800000003</v>
       </c>
       <c r="CM60">
-        <v>0.31459999999999999</v>
+        <v>314.59999999999997</v>
       </c>
       <c r="CN60">
         <v>1</v>
@@ -20442,7 +20455,7 @@
         <v>0.75333333000000002</v>
       </c>
       <c r="CM61">
-        <v>0.18866666700000001</v>
+        <v>188.66666700000002</v>
       </c>
       <c r="CN61">
         <v>0</v>
@@ -20768,7 +20781,7 @@
         <v>0.75333335000000001</v>
       </c>
       <c r="CM62">
-        <v>0.10100000000000001</v>
+        <v>101</v>
       </c>
       <c r="CN62">
         <v>0</v>
@@ -21055,7 +21068,7 @@
         <v>0.93666666700000001</v>
       </c>
       <c r="CM63">
-        <v>0.16500000000000001</v>
+        <v>165</v>
       </c>
       <c r="CN63">
         <v>0</v>
@@ -21351,7 +21364,7 @@
         <v>0.83999997400000004</v>
       </c>
       <c r="CM64">
-        <v>0.1295</v>
+        <v>129.5</v>
       </c>
       <c r="CN64">
         <v>0</v>
@@ -21650,7 +21663,7 @@
         <v>0.77000000099999999</v>
       </c>
       <c r="CM65">
-        <v>0.14733333300000001</v>
+        <v>147.33333300000001</v>
       </c>
       <c r="CN65">
         <v>0</v>
@@ -21943,7 +21956,7 @@
         <v>0.50499998000000001</v>
       </c>
       <c r="CM66">
-        <v>0.17549999999999999</v>
+        <v>175.5</v>
       </c>
       <c r="CN66">
         <v>0</v>
@@ -22236,7 +22249,7 @@
         <v>0.91499999200000004</v>
       </c>
       <c r="CM67">
-        <v>0.19400000000000001</v>
+        <v>194</v>
       </c>
       <c r="CN67">
         <v>0</v>
@@ -22550,7 +22563,7 @@
         <v>0.50400000199999995</v>
       </c>
       <c r="CM68">
-        <v>1.1666000000000001</v>
+        <v>1166.6000000000001</v>
       </c>
       <c r="CN68">
         <v>1</v>
@@ -22867,7 +22880,7 @@
         <v>1.934999943</v>
       </c>
       <c r="CM69">
-        <v>0.127</v>
+        <v>127</v>
       </c>
       <c r="CN69">
         <v>0</v>
@@ -23178,7 +23191,7 @@
         <v>0.51500001500000003</v>
       </c>
       <c r="CM70">
-        <v>0.27600000000000002</v>
+        <v>276</v>
       </c>
       <c r="CN70">
         <v>1</v>
@@ -23483,7 +23496,7 @@
         <v>0.62857142899999996</v>
       </c>
       <c r="CM71">
-        <v>1.5798571429999999</v>
+        <v>1579.857143</v>
       </c>
       <c r="CN71">
         <v>1</v>
@@ -23791,7 +23804,7 @@
         <v>0.980000019</v>
       </c>
       <c r="CM72">
-        <v>0.1515</v>
+        <v>151.5</v>
       </c>
       <c r="CN72">
         <v>0</v>
@@ -24099,7 +24112,7 @@
         <v>0.50800000999999995</v>
       </c>
       <c r="CM73">
-        <v>0.32740000000000002</v>
+        <v>327.40000000000003</v>
       </c>
       <c r="CN73">
         <v>1</v>
@@ -24428,7 +24441,7 @@
         <v>0.67400000100000002</v>
       </c>
       <c r="CM74">
-        <v>0.23949999999999999</v>
+        <v>239.5</v>
       </c>
       <c r="CN74">
         <v>1</v>
@@ -24763,7 +24776,7 @@
         <v>1.064999998</v>
       </c>
       <c r="CM75">
-        <v>0.185</v>
+        <v>185</v>
       </c>
       <c r="CN75">
         <v>0</v>
@@ -25235,7 +25248,7 @@
         <v>1.2999999520000001</v>
       </c>
       <c r="CM77">
-        <v>0.39350000000000002</v>
+        <v>393.5</v>
       </c>
       <c r="CN77">
         <v>1</v>
@@ -25546,7 +25559,7 @@
         <v>0.92499999700000002</v>
       </c>
       <c r="CM78">
-        <v>0.25850000000000001</v>
+        <v>258.5</v>
       </c>
       <c r="CN78">
         <v>1</v>
@@ -25851,7 +25864,7 @@
         <v>0.99499997500000004</v>
       </c>
       <c r="CM79">
-        <v>0.1845</v>
+        <v>184.5</v>
       </c>
       <c r="CN79">
         <v>0</v>
@@ -26147,7 +26160,7 @@
         <v>1.0950000289999999</v>
       </c>
       <c r="CM80">
-        <v>0.1515</v>
+        <v>151.5</v>
       </c>
       <c r="CN80">
         <v>0</v>
@@ -26440,7 +26453,7 @@
         <v>0.53666667099999998</v>
       </c>
       <c r="CM81">
-        <v>0.23949999999999999</v>
+        <v>239.5</v>
       </c>
       <c r="CN81">
         <v>1</v>
@@ -26721,7 +26734,7 @@
         <v>1.0780000089999999</v>
       </c>
       <c r="CM82">
-        <v>0.22</v>
+        <v>220</v>
       </c>
       <c r="CN82">
         <v>1</v>
@@ -27002,7 +27015,7 @@
         <v>0.61333334399999995</v>
       </c>
       <c r="CM83">
-        <v>0.13866666699999999</v>
+        <v>138.66666699999999</v>
       </c>
       <c r="CN83">
         <v>0</v>
@@ -27319,7 +27332,7 @@
         <v>0.84333332400000005</v>
       </c>
       <c r="CM84">
-        <v>0.178666667</v>
+        <v>178.66666699999999</v>
       </c>
       <c r="CN84">
         <v>0</v>
@@ -27630,7 +27643,7 @@
         <v>1.261999989</v>
       </c>
       <c r="CM85">
-        <v>0.16259999999999999</v>
+        <v>162.6</v>
       </c>
       <c r="CN85">
         <v>0</v>
@@ -27941,7 +27954,7 @@
         <v>1.1324999929999999</v>
       </c>
       <c r="CM86">
-        <v>0.16750000000000001</v>
+        <v>167.5</v>
       </c>
       <c r="CN86">
         <v>0</v>
@@ -28243,7 +28256,7 @@
         <v>0.90999996699999997</v>
       </c>
       <c r="CM87">
-        <v>0.38500000000000001</v>
+        <v>385</v>
       </c>
       <c r="CN87">
         <v>1</v>
@@ -28554,7 +28567,7 @@
         <v>1.075000003</v>
       </c>
       <c r="CM88">
-        <v>0.14324999999999999</v>
+        <v>143.25</v>
       </c>
       <c r="CN88">
         <v>0</v>
@@ -28874,7 +28887,7 @@
         <v>0.90400000800000002</v>
       </c>
       <c r="CM89">
-        <v>1.8568</v>
+        <v>1856.8</v>
       </c>
       <c r="CN89">
         <v>1</v>
@@ -29194,7 +29207,7 @@
         <v>0.96999998899999995</v>
       </c>
       <c r="CM90">
-        <v>1.463333333</v>
+        <v>1463.333333</v>
       </c>
       <c r="CN90">
         <v>1</v>
@@ -29505,7 +29518,7 @@
         <v>0.969999999</v>
       </c>
       <c r="CM91">
-        <v>0.126</v>
+        <v>126</v>
       </c>
       <c r="CN91">
         <v>0</v>
@@ -29810,7 +29823,7 @@
         <v>0.83333333300000001</v>
       </c>
       <c r="CM92">
-        <v>0.314</v>
+        <v>314</v>
       </c>
       <c r="CN92">
         <v>1</v>
@@ -30127,7 +30140,7 @@
         <v>0.646666666</v>
       </c>
       <c r="CM93">
-        <v>0.19966666699999999</v>
+        <v>199.66666699999999</v>
       </c>
       <c r="CN93">
         <v>0</v>
@@ -30414,7 +30427,7 @@
         <v>1.5333333410000001</v>
       </c>
       <c r="CM94">
-        <v>0.229333333</v>
+        <v>229.33333300000001</v>
       </c>
       <c r="CN94">
         <v>1</v>
@@ -30716,7 +30729,7 @@
         <v>1.1299999949999999</v>
       </c>
       <c r="CM95">
-        <v>0.15466666700000001</v>
+        <v>154.66666700000002</v>
       </c>
       <c r="CN95">
         <v>0</v>
@@ -31027,7 +31040,7 @@
         <v>0.69999998799999996</v>
       </c>
       <c r="CM96">
-        <v>0.16200000000000001</v>
+        <v>162</v>
       </c>
       <c r="CN96">
         <v>0</v>
@@ -31338,7 +31351,7 @@
         <v>1.3174999949999999</v>
       </c>
       <c r="CM97">
-        <v>0.30075000000000002</v>
+        <v>300.75</v>
       </c>
       <c r="CN97">
         <v>1</v>
@@ -31628,7 +31641,7 @@
         <v>0.60666666400000002</v>
       </c>
       <c r="CM98">
-        <v>0.12633333299999999</v>
+        <v>126.333333</v>
       </c>
       <c r="CN98">
         <v>0</v>
@@ -31912,7 +31925,7 @@
         <v>0.61800000700000002</v>
       </c>
       <c r="CM99">
-        <v>0.19420000000000001</v>
+        <v>194.20000000000002</v>
       </c>
       <c r="CN99">
         <v>0</v>
@@ -32229,7 +32242,7 @@
         <v>0.805999994</v>
       </c>
       <c r="CM100">
-        <v>0.224</v>
+        <v>224</v>
       </c>
       <c r="CN100">
         <v>1</v>
@@ -32540,7 +32553,7 @@
         <v>0.81800000699999997</v>
       </c>
       <c r="CM101">
-        <v>0.40760000000000002</v>
+        <v>407.6</v>
       </c>
       <c r="CN101">
         <v>1</v>
@@ -32839,7 +32852,7 @@
         <v>0.86666665499999995</v>
       </c>
       <c r="CM102">
-        <v>0.21766666700000001</v>
+        <v>217.66666700000002</v>
       </c>
       <c r="CN102">
         <v>1</v>
@@ -33147,7 +33160,7 @@
         <v>1.7250000240000001</v>
       </c>
       <c r="CM103">
-        <v>0.54649999999999999</v>
+        <v>546.5</v>
       </c>
       <c r="CN103">
         <v>1</v>
@@ -33440,7 +33453,7 @@
         <v>0.594999999</v>
       </c>
       <c r="CM104">
-        <v>0.34799999999999998</v>
+        <v>348</v>
       </c>
       <c r="CN104">
         <v>1</v>
@@ -33742,7 +33755,7 @@
         <v>1.0449999569999999</v>
       </c>
       <c r="CM105">
-        <v>0.17449999999999999</v>
+        <v>174.5</v>
       </c>
       <c r="CN105">
         <v>0</v>
@@ -34035,7 +34048,7 @@
         <v>0.52499999900000005</v>
       </c>
       <c r="CM106">
-        <v>0.13950000000000001</v>
+        <v>139.5</v>
       </c>
       <c r="CN106">
         <v>0</v>
@@ -34349,7 +34362,7 @@
         <v>0.72749999200000004</v>
       </c>
       <c r="CM107">
-        <v>0.19975000000000001</v>
+        <v>199.75</v>
       </c>
       <c r="CN107">
         <v>0</v>
@@ -34657,7 +34670,7 @@
         <v>1.0899999739999999</v>
       </c>
       <c r="CM108">
-        <v>0.26400000000000001</v>
+        <v>264</v>
       </c>
       <c r="CN108">
         <v>1</v>
@@ -34944,7 +34957,7 @@
         <v>0.56399999899999997</v>
       </c>
       <c r="CM109">
-        <v>0.1084</v>
+        <v>108.39999999999999</v>
       </c>
       <c r="CN109">
         <v>0</v>
@@ -35231,7 +35244,7 @@
         <v>0.58799998799999997</v>
       </c>
       <c r="CM110">
-        <v>0.11125</v>
+        <v>111.25</v>
       </c>
       <c r="CN110">
         <v>0</v>
@@ -35530,7 +35543,7 @@
         <v>0.88333332499999995</v>
       </c>
       <c r="CM111">
-        <v>0.12825</v>
+        <v>128.25</v>
       </c>
       <c r="CN111">
         <v>0</v>
@@ -35823,7 +35836,7 @@
         <v>1.0550000070000001</v>
       </c>
       <c r="CM112">
-        <v>0.16650000000000001</v>
+        <v>166.5</v>
       </c>
       <c r="CN112">
         <v>0</v>
@@ -36122,7 +36135,7 @@
         <v>0.76499998599999997</v>
       </c>
       <c r="CM113">
-        <v>0.2525</v>
+        <v>252.5</v>
       </c>
       <c r="CN113">
         <v>1</v>
@@ -36394,7 +36407,7 @@
         <v>0.88499998999999996</v>
       </c>
       <c r="CM114">
-        <v>0.14499999999999999</v>
+        <v>145</v>
       </c>
       <c r="CN114">
         <v>0</v>
@@ -36690,7 +36703,7 @@
         <v>0.59333332400000005</v>
       </c>
       <c r="CM115">
-        <v>0.29166666699999999</v>
+        <v>291.66666700000002</v>
       </c>
       <c r="CN115">
         <v>1</v>
@@ -36989,7 +37002,7 @@
         <v>0.68333333699999999</v>
       </c>
       <c r="CM116">
-        <v>0.2465</v>
+        <v>246.5</v>
       </c>
       <c r="CN116">
         <v>1</v>
@@ -37282,7 +37295,7 @@
         <v>0.93000000699999996</v>
       </c>
       <c r="CM117">
-        <v>0.1895</v>
+        <v>189.5</v>
       </c>
       <c r="CN117">
         <v>0</v>
@@ -37587,7 +37600,7 @@
         <v>0.97199999100000001</v>
       </c>
       <c r="CM118">
-        <v>0.37180000000000002</v>
+        <v>371.8</v>
       </c>
       <c r="CN118">
         <v>1</v>
@@ -37901,7 +37914,7 @@
         <v>0.82666667299999996</v>
       </c>
       <c r="CM119">
-        <v>0.13266666699999999</v>
+        <v>132.66666699999999</v>
       </c>
       <c r="CN119">
         <v>0</v>
@@ -38212,7 +38225,7 @@
         <v>1.1733333669999999</v>
       </c>
       <c r="CM120">
-        <v>0.35066666699999999</v>
+        <v>350.66666699999996</v>
       </c>
       <c r="CN120">
         <v>1</v>
@@ -38544,7 +38557,7 @@
         <v>1.1133333439999999</v>
       </c>
       <c r="CM121">
-        <v>0.34033333300000002</v>
+        <v>340.33333300000004</v>
       </c>
       <c r="CN121">
         <v>1</v>
@@ -38840,7 +38853,7 @@
         <v>0.87333333499999999</v>
       </c>
       <c r="CM122">
-        <v>0.213666667</v>
+        <v>213.66666700000002</v>
       </c>
       <c r="CN122">
         <v>1</v>
@@ -39133,7 +39146,7 @@
         <v>0.77999999499999995</v>
       </c>
       <c r="CM123">
-        <v>0.1782</v>
+        <v>178.2</v>
       </c>
       <c r="CN123">
         <v>0</v>
@@ -39438,7 +39451,7 @@
         <v>1.070000005</v>
       </c>
       <c r="CM124">
-        <v>0.31659999999999999</v>
+        <v>316.59999999999997</v>
       </c>
       <c r="CN124">
         <v>1</v>
@@ -39746,7 +39759,7 @@
         <v>0.86399999900000002</v>
       </c>
       <c r="CM125">
-        <v>0.23619999999999999</v>
+        <v>236.2</v>
       </c>
       <c r="CN125">
         <v>1</v>
@@ -40045,7 +40058,7 @@
         <v>0.793333332</v>
       </c>
       <c r="CM126">
-        <v>0.230333333</v>
+        <v>230.33333300000001</v>
       </c>
       <c r="CN126">
         <v>1</v>
@@ -40341,7 +40354,7 @@
         <v>1.2450000050000001</v>
       </c>
       <c r="CM127">
-        <v>0.11</v>
+        <v>110</v>
       </c>
       <c r="CN127">
         <v>0</v>
@@ -40625,7 +40638,7 @@
         <v>1.091666639</v>
       </c>
       <c r="CM128">
-        <v>0.52</v>
+        <v>520</v>
       </c>
       <c r="CN128">
         <v>1</v>
@@ -40933,7 +40946,7 @@
         <v>0.87000000499999997</v>
       </c>
       <c r="CM129">
-        <v>0.16950000000000001</v>
+        <v>169.5</v>
       </c>
       <c r="CN129">
         <v>0</v>
@@ -41238,7 +41251,7 @@
         <v>0.91666666699999999</v>
       </c>
       <c r="CM130">
-        <v>0.14933333300000001</v>
+        <v>149.33333300000001</v>
       </c>
       <c r="CN130">
         <v>0</v>

--- a/sample.data.xlsx
+++ b/sample.data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aportugu/Desktop/Rworkshop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9A8408-E79C-1942-B541-C650B8C59683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA3C5352-1407-D447-8C02-B757FC1B9534}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1394,8 +1394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DM130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BY102" workbookViewId="0">
-      <selection activeCell="CO133" sqref="CO133"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:J130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1782,7 +1782,7 @@
         <v>116</v>
       </c>
       <c r="J2">
-        <v>73.704109590000002</v>
+        <v>73.7</v>
       </c>
       <c r="K2">
         <v>27</v>
@@ -2099,7 +2099,7 @@
         <v>116</v>
       </c>
       <c r="J3">
-        <v>62.498630140000003</v>
+        <v>62.4</v>
       </c>
       <c r="K3">
         <v>27</v>
@@ -2392,7 +2392,7 @@
         <v>116</v>
       </c>
       <c r="J4">
-        <v>50.265753420000003</v>
+        <v>50.2</v>
       </c>
       <c r="K4">
         <v>28</v>
@@ -2676,7 +2676,7 @@
         <v>116</v>
       </c>
       <c r="J5">
-        <v>33.665753420000001</v>
+        <v>33.6</v>
       </c>
       <c r="K5">
         <v>28</v>
@@ -2966,7 +2966,7 @@
         <v>116</v>
       </c>
       <c r="J6">
-        <v>55.94794521</v>
+        <v>55.9</v>
       </c>
       <c r="K6">
         <v>33</v>
@@ -3244,7 +3244,7 @@
         <v>116</v>
       </c>
       <c r="J7">
-        <v>53.145205480000001</v>
+        <v>53.1</v>
       </c>
       <c r="K7">
         <v>23</v>
@@ -3549,7 +3549,7 @@
         <v>116</v>
       </c>
       <c r="J8">
-        <v>67.931506850000005</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="K8">
         <v>21</v>
@@ -3860,7 +3860,7 @@
         <v>116</v>
       </c>
       <c r="J9">
-        <v>33.550684930000003</v>
+        <v>33.5</v>
       </c>
       <c r="K9">
         <v>30</v>
@@ -4141,7 +4141,7 @@
         <v>116</v>
       </c>
       <c r="J10">
-        <v>42.435616439999997</v>
+        <v>42.4</v>
       </c>
       <c r="K10">
         <v>26</v>
@@ -4446,7 +4446,7 @@
         <v>116</v>
       </c>
       <c r="J11">
-        <v>67.564383559999996</v>
+        <v>67.5</v>
       </c>
       <c r="K11">
         <v>40</v>
@@ -4763,7 +4763,7 @@
         <v>116</v>
       </c>
       <c r="J12">
-        <v>68.241095889999997</v>
+        <v>68.2</v>
       </c>
       <c r="K12">
         <v>41</v>
@@ -5101,7 +5101,7 @@
         <v>116</v>
       </c>
       <c r="J13">
-        <v>70.07945205</v>
+        <v>70</v>
       </c>
       <c r="K13">
         <v>27</v>
@@ -5439,7 +5439,7 @@
         <v>130</v>
       </c>
       <c r="J14">
-        <v>65.742465749999994</v>
+        <v>65.7</v>
       </c>
       <c r="K14">
         <v>91</v>
@@ -5762,7 +5762,7 @@
         <v>130</v>
       </c>
       <c r="J15">
-        <v>77.18082192</v>
+        <v>77.099999999999994</v>
       </c>
       <c r="K15">
         <v>30</v>
@@ -6061,7 +6061,7 @@
         <v>116</v>
       </c>
       <c r="J16">
-        <v>65.838356160000004</v>
+        <v>65.8</v>
       </c>
       <c r="K16">
         <v>26</v>
@@ -6375,7 +6375,7 @@
         <v>130</v>
       </c>
       <c r="J17">
-        <v>66.53150685</v>
+        <v>66.5</v>
       </c>
       <c r="K17">
         <v>30</v>
@@ -6716,7 +6716,7 @@
         <v>116</v>
       </c>
       <c r="J18">
-        <v>73.663013699999993</v>
+        <v>73.599999999999994</v>
       </c>
       <c r="K18">
         <v>28</v>
@@ -7021,7 +7021,7 @@
         <v>130</v>
       </c>
       <c r="J19">
-        <v>55.630136989999997</v>
+        <v>55.6</v>
       </c>
       <c r="K19">
         <v>29</v>
@@ -7365,7 +7365,7 @@
         <v>130</v>
       </c>
       <c r="J20">
-        <v>74.816438360000006</v>
+        <v>74.8</v>
       </c>
       <c r="K20">
         <v>31</v>
@@ -7679,7 +7679,7 @@
         <v>116</v>
       </c>
       <c r="J21">
-        <v>67.153424659999999</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="K21">
         <v>27</v>
@@ -8011,7 +8011,7 @@
         <v>116</v>
       </c>
       <c r="J22">
-        <v>61.276712330000002</v>
+        <v>61.2</v>
       </c>
       <c r="K22">
         <v>23</v>
@@ -8343,7 +8343,7 @@
         <v>130</v>
       </c>
       <c r="J23">
-        <v>68.835616439999995</v>
+        <v>68.8</v>
       </c>
       <c r="K23">
         <v>39</v>
@@ -8645,7 +8645,7 @@
         <v>130</v>
       </c>
       <c r="J24">
-        <v>77.205479449999999</v>
+        <v>77.2</v>
       </c>
       <c r="K24">
         <v>30</v>
@@ -8959,7 +8959,7 @@
         <v>130</v>
       </c>
       <c r="J25">
-        <v>54.583561639999999</v>
+        <v>54.5</v>
       </c>
       <c r="K25">
         <v>31</v>
@@ -9306,7 +9306,7 @@
         <v>130</v>
       </c>
       <c r="J26">
-        <v>62.567123289999998</v>
+        <v>62.5</v>
       </c>
       <c r="K26">
         <v>33</v>
@@ -9605,7 +9605,7 @@
         <v>116</v>
       </c>
       <c r="J27">
-        <v>70.386301369999998</v>
+        <v>70.3</v>
       </c>
       <c r="K27">
         <v>26</v>
@@ -9904,7 +9904,7 @@
         <v>130</v>
       </c>
       <c r="J28">
-        <v>47.282191779999998</v>
+        <v>47.2</v>
       </c>
       <c r="K28">
         <v>32</v>
@@ -10200,7 +10200,7 @@
         <v>130</v>
       </c>
       <c r="J29">
-        <v>83.282191780000005</v>
+        <v>83.2</v>
       </c>
       <c r="K29">
         <v>30</v>
@@ -10514,7 +10514,7 @@
         <v>130</v>
       </c>
       <c r="J30">
-        <v>61.882191779999999</v>
+        <v>61.8</v>
       </c>
       <c r="K30">
         <v>35</v>
@@ -10813,7 +10813,7 @@
         <v>130</v>
       </c>
       <c r="J31">
-        <v>71.002739730000002</v>
+        <v>71</v>
       </c>
       <c r="K31">
         <v>36</v>
@@ -11133,7 +11133,7 @@
         <v>130</v>
       </c>
       <c r="J32">
-        <v>65.479452050000006</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="K32">
         <v>40</v>
@@ -11432,7 +11432,7 @@
         <v>130</v>
       </c>
       <c r="J33">
-        <v>67.632876710000005</v>
+        <v>67.599999999999994</v>
       </c>
       <c r="K33">
         <v>36</v>
@@ -11713,7 +11713,7 @@
         <v>130</v>
       </c>
       <c r="J34">
-        <v>76.405479450000001</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="K34">
         <v>31</v>
@@ -12051,7 +12051,7 @@
         <v>130</v>
       </c>
       <c r="J35">
-        <v>71.775342469999998</v>
+        <v>71.7</v>
       </c>
       <c r="K35">
         <v>28</v>
@@ -12362,7 +12362,7 @@
         <v>130</v>
       </c>
       <c r="J36">
-        <v>72.578082190000003</v>
+        <v>72.5</v>
       </c>
       <c r="K36">
         <v>56</v>
@@ -12646,7 +12646,7 @@
         <v>130</v>
       </c>
       <c r="J37">
-        <v>76.479452050000006</v>
+        <v>76.400000000000006</v>
       </c>
       <c r="K37">
         <v>39</v>
@@ -12945,7 +12945,7 @@
         <v>130</v>
       </c>
       <c r="J38">
-        <v>68.347945210000006</v>
+        <v>68.3</v>
       </c>
       <c r="K38">
         <v>34</v>
@@ -13289,7 +13289,7 @@
         <v>130</v>
       </c>
       <c r="J39">
-        <v>74.542465750000005</v>
+        <v>74.5</v>
       </c>
       <c r="K39">
         <v>44</v>
@@ -13579,7 +13579,7 @@
         <v>130</v>
       </c>
       <c r="J40">
-        <v>63.964383560000002</v>
+        <v>63.9</v>
       </c>
       <c r="K40">
         <v>32</v>
@@ -13884,7 +13884,7 @@
         <v>130</v>
       </c>
       <c r="J41">
-        <v>58.821917810000002</v>
+        <v>58.8</v>
       </c>
       <c r="K41">
         <v>49</v>
@@ -14180,7 +14180,7 @@
         <v>130</v>
       </c>
       <c r="J42">
-        <v>79.81917808</v>
+        <v>79.8</v>
       </c>
       <c r="K42">
         <v>38</v>
@@ -14485,7 +14485,7 @@
         <v>130</v>
       </c>
       <c r="J43">
-        <v>56.331506849999997</v>
+        <v>56.3</v>
       </c>
       <c r="K43">
         <v>48</v>
@@ -14784,7 +14784,7 @@
         <v>130</v>
       </c>
       <c r="J44">
-        <v>75.536986299999995</v>
+        <v>75.5</v>
       </c>
       <c r="K44">
         <v>35</v>
@@ -15113,7 +15113,7 @@
         <v>116</v>
       </c>
       <c r="J45">
-        <v>42.241095889999997</v>
+        <v>42.2</v>
       </c>
       <c r="K45">
         <v>26</v>
@@ -15442,7 +15442,7 @@
         <v>116</v>
       </c>
       <c r="J46">
-        <v>66.115068489999999</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="K46">
         <v>27</v>
@@ -15750,7 +15750,7 @@
         <v>116</v>
       </c>
       <c r="J47">
-        <v>62.117808220000001</v>
+        <v>62.1</v>
       </c>
       <c r="K47">
         <v>47</v>
@@ -16088,7 +16088,7 @@
         <v>116</v>
       </c>
       <c r="J48">
-        <v>50.854794519999999</v>
+        <v>50.8</v>
       </c>
       <c r="K48">
         <v>62</v>
@@ -16414,7 +16414,7 @@
         <v>130</v>
       </c>
       <c r="J49">
-        <v>67.183561639999994</v>
+        <v>67.099999999999994</v>
       </c>
       <c r="K49">
         <v>32</v>
@@ -16740,7 +16740,7 @@
         <v>130</v>
       </c>
       <c r="J50">
-        <v>75.134246579999996</v>
+        <v>75.099999999999994</v>
       </c>
       <c r="K50">
         <v>53</v>
@@ -17069,7 +17069,7 @@
         <v>130</v>
       </c>
       <c r="J51">
-        <v>66.761643840000005</v>
+        <v>66.7</v>
       </c>
       <c r="K51">
         <v>32</v>
@@ -17383,7 +17383,7 @@
         <v>130</v>
       </c>
       <c r="J52">
-        <v>72.55890411</v>
+        <v>72.5</v>
       </c>
       <c r="K52">
         <v>42</v>
@@ -17691,7 +17691,7 @@
         <v>130</v>
       </c>
       <c r="J53">
-        <v>48.123287670000003</v>
+        <v>48.1</v>
       </c>
       <c r="K53">
         <v>33</v>
@@ -18002,7 +18002,7 @@
         <v>116</v>
       </c>
       <c r="J54">
-        <v>52.632876709999998</v>
+        <v>52.6</v>
       </c>
       <c r="K54">
         <v>24</v>
@@ -18334,7 +18334,7 @@
         <v>130</v>
       </c>
       <c r="J55">
-        <v>72.019178080000003</v>
+        <v>72</v>
       </c>
       <c r="K55">
         <v>49</v>
@@ -18627,7 +18627,7 @@
         <v>116</v>
       </c>
       <c r="J56">
-        <v>26.476712330000002</v>
+        <v>26.4</v>
       </c>
       <c r="K56">
         <v>28</v>
@@ -18923,7 +18923,7 @@
         <v>116</v>
       </c>
       <c r="J57">
-        <v>64.553424660000005</v>
+        <v>64.5</v>
       </c>
       <c r="K57">
         <v>26</v>
@@ -19252,7 +19252,7 @@
         <v>130</v>
       </c>
       <c r="J58">
-        <v>59.446575340000003</v>
+        <v>59.4</v>
       </c>
       <c r="K58">
         <v>33</v>
@@ -19590,7 +19590,7 @@
         <v>130</v>
       </c>
       <c r="J59">
-        <v>55.71506849</v>
+        <v>55.7</v>
       </c>
       <c r="K59">
         <v>43</v>
@@ -19880,7 +19880,7 @@
         <v>116</v>
       </c>
       <c r="J60">
-        <v>54.616438359999997</v>
+        <v>54.6</v>
       </c>
       <c r="K60">
         <v>33</v>
@@ -20227,7 +20227,7 @@
         <v>130</v>
       </c>
       <c r="J61">
-        <v>64.44109589</v>
+        <v>64.400000000000006</v>
       </c>
       <c r="K61">
         <v>41</v>
@@ -20565,7 +20565,7 @@
         <v>130</v>
       </c>
       <c r="J62">
-        <v>54.704109590000002</v>
+        <v>54.7</v>
       </c>
       <c r="K62">
         <v>53</v>
@@ -20858,7 +20858,7 @@
         <v>130</v>
       </c>
       <c r="J63">
-        <v>55.983561639999998</v>
+        <v>55.9</v>
       </c>
       <c r="K63">
         <v>34</v>
@@ -21145,7 +21145,7 @@
         <v>130</v>
       </c>
       <c r="J64">
-        <v>41.446575340000003</v>
+        <v>41.4</v>
       </c>
       <c r="K64">
         <v>40</v>
@@ -21441,7 +21441,7 @@
         <v>130</v>
       </c>
       <c r="J65">
-        <v>68.287671230000001</v>
+        <v>68.2</v>
       </c>
       <c r="K65">
         <v>35</v>
@@ -21740,7 +21740,7 @@
         <v>130</v>
       </c>
       <c r="J66">
-        <v>76.175342470000004</v>
+        <v>76.099999999999994</v>
       </c>
       <c r="K66">
         <v>33</v>
@@ -22033,7 +22033,7 @@
         <v>116</v>
       </c>
       <c r="J67">
-        <v>73.476712329999998</v>
+        <v>73.400000000000006</v>
       </c>
       <c r="K67">
         <v>38</v>
@@ -22329,7 +22329,7 @@
         <v>130</v>
       </c>
       <c r="J68">
-        <v>44.997260269999998</v>
+        <v>44.9</v>
       </c>
       <c r="K68">
         <v>29</v>
@@ -22664,7 +22664,7 @@
         <v>130</v>
       </c>
       <c r="J69">
-        <v>74.115068489999999</v>
+        <v>74.099999999999994</v>
       </c>
       <c r="K69">
         <v>53</v>
@@ -22978,7 +22978,7 @@
         <v>130</v>
       </c>
       <c r="J70">
-        <v>77.095890409999996</v>
+        <v>77</v>
       </c>
       <c r="K70">
         <v>40</v>
@@ -23280,7 +23280,7 @@
         <v>116</v>
       </c>
       <c r="J71">
-        <v>52.309589039999999</v>
+        <v>52.3</v>
       </c>
       <c r="K71">
         <v>28</v>
@@ -23600,7 +23600,7 @@
         <v>130</v>
       </c>
       <c r="J72">
-        <v>57.890410959999997</v>
+        <v>57.8</v>
       </c>
       <c r="K72">
         <v>33</v>
@@ -23884,7 +23884,7 @@
         <v>130</v>
       </c>
       <c r="J73">
-        <v>70.868493150000006</v>
+        <v>70.8</v>
       </c>
       <c r="K73">
         <v>43</v>
@@ -24213,7 +24213,7 @@
         <v>130</v>
       </c>
       <c r="J74">
-        <v>46.306849319999998</v>
+        <v>46.3</v>
       </c>
       <c r="K74">
         <v>32</v>
@@ -24551,7 +24551,7 @@
         <v>130</v>
       </c>
       <c r="J75">
-        <v>60.383561640000003</v>
+        <v>60.3</v>
       </c>
       <c r="K75">
         <v>33</v>
@@ -24883,7 +24883,7 @@
         <v>130</v>
       </c>
       <c r="J76">
-        <v>50.443835620000002</v>
+        <v>50.4</v>
       </c>
       <c r="K76">
         <v>43</v>
@@ -25026,7 +25026,7 @@
         <v>116</v>
       </c>
       <c r="J77">
-        <v>70.972602739999999</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="K77">
         <v>28</v>
@@ -25337,7 +25337,7 @@
         <v>116</v>
       </c>
       <c r="J78">
-        <v>61.534246580000001</v>
+        <v>61.5</v>
       </c>
       <c r="K78">
         <v>28</v>
@@ -25648,7 +25648,7 @@
         <v>116</v>
       </c>
       <c r="J79">
-        <v>67.238356159999995</v>
+        <v>67.2</v>
       </c>
       <c r="K79">
         <v>27</v>
@@ -25941,7 +25941,7 @@
         <v>116</v>
       </c>
       <c r="J80">
-        <v>51.578082190000003</v>
+        <v>51.5</v>
       </c>
       <c r="K80">
         <v>27</v>
@@ -26246,7 +26246,7 @@
         <v>116</v>
       </c>
       <c r="J81">
-        <v>50.317808220000003</v>
+        <v>50.3</v>
       </c>
       <c r="K81">
         <v>27</v>
@@ -26524,7 +26524,7 @@
         <v>116</v>
       </c>
       <c r="J82">
-        <v>64.679452049999995</v>
+        <v>64.599999999999994</v>
       </c>
       <c r="K82">
         <v>31</v>
@@ -26796,7 +26796,7 @@
         <v>116</v>
       </c>
       <c r="J83">
-        <v>59.189041099999997</v>
+        <v>59.1</v>
       </c>
       <c r="K83">
         <v>28</v>
@@ -27101,7 +27101,7 @@
         <v>116</v>
       </c>
       <c r="J84">
-        <v>65.46849315</v>
+        <v>65.400000000000006</v>
       </c>
       <c r="K84">
         <v>23</v>
@@ -27421,7 +27421,7 @@
         <v>116</v>
       </c>
       <c r="J85">
-        <v>54.2739726</v>
+        <v>54.2</v>
       </c>
       <c r="K85">
         <v>19</v>
@@ -27729,7 +27729,7 @@
         <v>116</v>
       </c>
       <c r="J86">
-        <v>69.950684929999994</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="K86">
         <v>20</v>
@@ -28031,7 +28031,7 @@
         <v>116</v>
       </c>
       <c r="J87">
-        <v>64.126027399999998</v>
+        <v>64.099999999999994</v>
       </c>
       <c r="K87">
         <v>29</v>
@@ -28345,7 +28345,7 @@
         <v>116</v>
       </c>
       <c r="J88">
-        <v>59.783561640000002</v>
+        <v>59.7</v>
       </c>
       <c r="K88">
         <v>27</v>
@@ -28656,7 +28656,7 @@
         <v>116</v>
       </c>
       <c r="J89">
-        <v>38.413698629999999</v>
+        <v>38.4</v>
       </c>
       <c r="K89">
         <v>24</v>
@@ -28976,7 +28976,7 @@
         <v>116</v>
       </c>
       <c r="J90">
-        <v>30.63013699</v>
+        <v>30.6</v>
       </c>
       <c r="K90">
         <v>49</v>
@@ -29293,7 +29293,7 @@
         <v>116</v>
       </c>
       <c r="J91">
-        <v>58.15616438</v>
+        <v>58.1</v>
       </c>
       <c r="K91">
         <v>36</v>
@@ -29598,7 +29598,7 @@
         <v>116</v>
       </c>
       <c r="J92">
-        <v>66.663013699999993</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="K92">
         <v>30</v>
@@ -29912,7 +29912,7 @@
         <v>116</v>
       </c>
       <c r="J93">
-        <v>65.084931510000004</v>
+        <v>65</v>
       </c>
       <c r="K93">
         <v>24</v>
@@ -30208,7 +30208,7 @@
         <v>116</v>
       </c>
       <c r="J94">
-        <v>57.435616439999997</v>
+        <v>57.4</v>
       </c>
       <c r="K94">
         <v>30</v>
@@ -30498,7 +30498,7 @@
         <v>116</v>
       </c>
       <c r="J95">
-        <v>56.668493150000003</v>
+        <v>56.6</v>
       </c>
       <c r="K95">
         <v>26</v>
@@ -30818,7 +30818,7 @@
         <v>116</v>
       </c>
       <c r="J96">
-        <v>39.942465749999997</v>
+        <v>39.9</v>
       </c>
       <c r="K96">
         <v>27</v>
@@ -31129,7 +31129,7 @@
         <v>116</v>
       </c>
       <c r="J97">
-        <v>56.690410960000001</v>
+        <v>56.6</v>
       </c>
       <c r="K97">
         <v>37</v>
@@ -31419,7 +31419,7 @@
         <v>116</v>
       </c>
       <c r="J98">
-        <v>62.19452055</v>
+        <v>62.1</v>
       </c>
       <c r="K98">
         <v>26</v>
@@ -31709,7 +31709,7 @@
         <v>116</v>
       </c>
       <c r="J99">
-        <v>62.263013700000002</v>
+        <v>62.2</v>
       </c>
       <c r="K99">
         <v>26</v>
@@ -32014,7 +32014,7 @@
         <v>116</v>
       </c>
       <c r="J100">
-        <v>69.501369859999997</v>
+        <v>69.5</v>
       </c>
       <c r="K100">
         <v>42</v>
@@ -32331,7 +32331,7 @@
         <v>116</v>
       </c>
       <c r="J101">
-        <v>73.950684929999994</v>
+        <v>73.900000000000006</v>
       </c>
       <c r="K101">
         <v>29</v>
@@ -32630,7 +32630,7 @@
         <v>116</v>
       </c>
       <c r="J102">
-        <v>67.53150685</v>
+        <v>67.5</v>
       </c>
       <c r="K102">
         <v>35</v>
@@ -32938,7 +32938,7 @@
         <v>116</v>
       </c>
       <c r="J103">
-        <v>57.268493149999998</v>
+        <v>57.2</v>
       </c>
       <c r="K103">
         <v>35</v>
@@ -33231,7 +33231,7 @@
         <v>116</v>
       </c>
       <c r="J104">
-        <v>64.53150685</v>
+        <v>64.5</v>
       </c>
       <c r="K104">
         <v>29</v>
@@ -33530,7 +33530,7 @@
         <v>116</v>
       </c>
       <c r="J105">
-        <v>47.797260270000002</v>
+        <v>47.7</v>
       </c>
       <c r="K105">
         <v>34</v>
@@ -33835,7 +33835,7 @@
         <v>116</v>
       </c>
       <c r="J106">
-        <v>32.117808220000001</v>
+        <v>32.1</v>
       </c>
       <c r="K106">
         <v>27</v>
@@ -34128,7 +34128,7 @@
         <v>116</v>
       </c>
       <c r="J107">
-        <v>68.227397260000004</v>
+        <v>68.2</v>
       </c>
       <c r="K107">
         <v>40</v>
@@ -34451,7 +34451,7 @@
         <v>116</v>
       </c>
       <c r="J108">
-        <v>66.632876710000005</v>
+        <v>66.599999999999994</v>
       </c>
       <c r="K108">
         <v>29</v>
@@ -34732,7 +34732,7 @@
         <v>116</v>
       </c>
       <c r="J109">
-        <v>34.019178080000003</v>
+        <v>34</v>
       </c>
       <c r="K109">
         <v>25</v>
@@ -35025,7 +35025,7 @@
         <v>116</v>
       </c>
       <c r="J110">
-        <v>34.509589040000002</v>
+        <v>34.5</v>
       </c>
       <c r="K110">
         <v>50</v>
@@ -35321,7 +35321,7 @@
         <v>116</v>
       </c>
       <c r="J111">
-        <v>79.430136989999994</v>
+        <v>79.400000000000006</v>
       </c>
       <c r="K111">
         <v>27</v>
@@ -35614,7 +35614,7 @@
         <v>116</v>
       </c>
       <c r="J112">
-        <v>49.769863010000002</v>
+        <v>49.7</v>
       </c>
       <c r="K112">
         <v>19</v>
@@ -35922,7 +35922,7 @@
         <v>116</v>
       </c>
       <c r="J113">
-        <v>65.126027399999998</v>
+        <v>65.099999999999994</v>
       </c>
       <c r="K113">
         <v>118</v>
@@ -36194,7 +36194,7 @@
         <v>116</v>
       </c>
       <c r="J114">
-        <v>25.728767120000001</v>
+        <v>25.7</v>
       </c>
       <c r="K114">
         <v>24</v>
@@ -36475,7 +36475,7 @@
         <v>116</v>
       </c>
       <c r="J115">
-        <v>63.46849315</v>
+        <v>63.4</v>
       </c>
       <c r="K115">
         <v>26</v>
@@ -36783,7 +36783,7 @@
         <v>116</v>
       </c>
       <c r="J116">
-        <v>41.030136990000003</v>
+        <v>41</v>
       </c>
       <c r="K116">
         <v>27</v>
@@ -37070,7 +37070,7 @@
         <v>116</v>
       </c>
       <c r="J117">
-        <v>64.758904110000003</v>
+        <v>64.7</v>
       </c>
       <c r="K117">
         <v>23</v>
@@ -37372,7 +37372,7 @@
         <v>116</v>
       </c>
       <c r="J118">
-        <v>67.328767119999995</v>
+        <v>67.3</v>
       </c>
       <c r="K118">
         <v>32</v>
@@ -37686,7 +37686,7 @@
         <v>116</v>
       </c>
       <c r="J119">
-        <v>68.054794520000002</v>
+        <v>68</v>
       </c>
       <c r="K119">
         <v>28</v>
@@ -37991,7 +37991,7 @@
         <v>116</v>
       </c>
       <c r="J120">
-        <v>63.769863010000002</v>
+        <v>63.7</v>
       </c>
       <c r="K120">
         <v>26</v>
@@ -38314,7 +38314,7 @@
         <v>116</v>
       </c>
       <c r="J121">
-        <v>65.632876710000005</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="K121">
         <v>29</v>
@@ -38643,7 +38643,7 @@
         <v>116</v>
       </c>
       <c r="J122">
-        <v>76.753424659999993</v>
+        <v>76.7</v>
       </c>
       <c r="K122">
         <v>25</v>
@@ -38924,7 +38924,7 @@
         <v>116</v>
       </c>
       <c r="J123">
-        <v>49.019178080000003</v>
+        <v>49</v>
       </c>
       <c r="K123">
         <v>26</v>
@@ -39217,7 +39217,7 @@
         <v>116</v>
       </c>
       <c r="J124">
-        <v>61.216438359999998</v>
+        <v>61.2</v>
       </c>
       <c r="K124">
         <v>24</v>
@@ -39537,7 +39537,7 @@
         <v>116</v>
       </c>
       <c r="J125">
-        <v>73.550684930000003</v>
+        <v>73.5</v>
       </c>
       <c r="K125">
         <v>32</v>
@@ -39821,7 +39821,7 @@
         <v>116</v>
       </c>
       <c r="J126">
-        <v>68.802739729999999</v>
+        <v>68.8</v>
       </c>
       <c r="K126">
         <v>27</v>
@@ -40138,7 +40138,7 @@
         <v>116</v>
       </c>
       <c r="J127">
-        <v>67.572602739999994</v>
+        <v>67.5</v>
       </c>
       <c r="K127">
         <v>27</v>
@@ -40416,7 +40416,7 @@
         <v>116</v>
       </c>
       <c r="J128">
-        <v>58.29863014</v>
+        <v>58.2</v>
       </c>
       <c r="K128">
         <v>22</v>
@@ -40727,7 +40727,7 @@
         <v>116</v>
       </c>
       <c r="J129">
-        <v>76.534246580000001</v>
+        <v>76.5</v>
       </c>
       <c r="K129">
         <v>22</v>
@@ -41032,7 +41032,7 @@
         <v>116</v>
       </c>
       <c r="J130">
-        <v>63.641095890000003</v>
+        <v>63.6</v>
       </c>
       <c r="K130">
         <v>27</v>
